--- a/Code/Results/Cases/Case_6_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.51121749562488</v>
+        <v>21.29825819418657</v>
       </c>
       <c r="C2">
-        <v>18.70891953474328</v>
+        <v>14.67029997986084</v>
       </c>
       <c r="D2">
-        <v>4.623759795687129</v>
+        <v>7.255855573924529</v>
       </c>
       <c r="E2">
-        <v>9.702143942758886</v>
+        <v>10.94359949895674</v>
       </c>
       <c r="F2">
-        <v>36.31451474318773</v>
+        <v>24.31254685450186</v>
       </c>
       <c r="G2">
-        <v>2.074612357967988</v>
+        <v>2.070732996809663</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.651411829218692</v>
+        <v>6.370152244932494</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.88528006285743</v>
+        <v>11.59970368416773</v>
       </c>
       <c r="O2">
-        <v>25.84368478954243</v>
+        <v>16.59309599656901</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.70310887896117</v>
+        <v>19.85693696872408</v>
       </c>
       <c r="C3">
-        <v>17.3760004555303</v>
+        <v>13.72584812413695</v>
       </c>
       <c r="D3">
-        <v>4.460100802272551</v>
+        <v>6.946572834078729</v>
       </c>
       <c r="E3">
-        <v>9.310107785546265</v>
+        <v>10.48205352837563</v>
       </c>
       <c r="F3">
-        <v>34.82947594225704</v>
+        <v>23.54637279343334</v>
       </c>
       <c r="G3">
-        <v>2.085585780142708</v>
+        <v>2.0768874701919</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.521290765697326</v>
+        <v>6.249913478039235</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.18656133779579</v>
+        <v>11.73960201261923</v>
       </c>
       <c r="O3">
-        <v>24.92566740322799</v>
+        <v>16.26225168450779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.539801055493</v>
+        <v>18.91987460438813</v>
       </c>
       <c r="C4">
-        <v>16.51592899800205</v>
+        <v>13.11251562420384</v>
       </c>
       <c r="D4">
-        <v>4.358233937686513</v>
+        <v>6.752536388211486</v>
       </c>
       <c r="E4">
-        <v>9.068736813455553</v>
+        <v>10.19483791288564</v>
       </c>
       <c r="F4">
-        <v>33.93221443639214</v>
+        <v>23.08889669017823</v>
       </c>
       <c r="G4">
-        <v>2.092469919171739</v>
+        <v>2.080779631713158</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.445431985508621</v>
+        <v>6.178855341097096</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.37370412112756</v>
+        <v>11.82923229645132</v>
       </c>
       <c r="O4">
-        <v>24.37920836641967</v>
+        <v>16.07441529594741</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08804518797513</v>
+        <v>18.52483064858136</v>
       </c>
       <c r="C5">
-        <v>16.1548195649145</v>
+        <v>12.85415431329338</v>
       </c>
       <c r="D5">
-        <v>4.316425801419187</v>
+        <v>6.672533652125861</v>
       </c>
       <c r="E5">
-        <v>8.970313773848023</v>
+        <v>10.07699829207591</v>
       </c>
       <c r="F5">
-        <v>33.57050108140348</v>
+        <v>22.90592769983499</v>
       </c>
       <c r="G5">
-        <v>2.095314863893698</v>
+        <v>2.08239501978583</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.41552080839501</v>
+        <v>6.150609723749625</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.45058035721981</v>
+        <v>11.86668445225849</v>
       </c>
       <c r="O5">
-        <v>24.16092779377415</v>
+        <v>16.00169022546405</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01236310706131</v>
+        <v>18.45843516424259</v>
       </c>
       <c r="C6">
-        <v>16.09421192177367</v>
+        <v>12.81074459226954</v>
       </c>
       <c r="D6">
-        <v>4.309467267820724</v>
+        <v>6.659196462129667</v>
       </c>
       <c r="E6">
-        <v>8.953970269198249</v>
+        <v>10.05738818685453</v>
       </c>
       <c r="F6">
-        <v>33.51068477069175</v>
+        <v>22.87576033513061</v>
       </c>
       <c r="G6">
-        <v>2.09578973392298</v>
+        <v>2.082665046452617</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.410614210531906</v>
+        <v>6.145962921189128</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.4633846940472</v>
+        <v>11.87295904732061</v>
       </c>
       <c r="O6">
-        <v>24.12495110237933</v>
+        <v>15.98984387210775</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53375340981455</v>
+        <v>18.91460039590025</v>
       </c>
       <c r="C7">
-        <v>16.51110215001223</v>
+        <v>13.10906539315818</v>
       </c>
       <c r="D7">
-        <v>4.357671228404701</v>
+        <v>6.751461060214995</v>
       </c>
       <c r="E7">
-        <v>9.067409550061486</v>
+        <v>10.19325168079859</v>
       </c>
       <c r="F7">
-        <v>33.92731995260196</v>
+        <v>23.0864148516096</v>
       </c>
       <c r="G7">
-        <v>2.092508123221217</v>
+        <v>2.080801297717209</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.445024553449759</v>
+        <v>6.178471512676666</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.37473832313275</v>
+        <v>11.82973364936093</v>
       </c>
       <c r="O7">
-        <v>24.37624660562398</v>
+        <v>16.07341908220269</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.89917614153149</v>
+        <v>20.81204846437233</v>
       </c>
       <c r="C8">
-        <v>18.257879660919</v>
+        <v>14.35158005525482</v>
       </c>
       <c r="D8">
-        <v>4.56764481255578</v>
+        <v>7.150134005780759</v>
       </c>
       <c r="E8">
-        <v>9.567163372980382</v>
+        <v>10.78534480057608</v>
       </c>
       <c r="F8">
-        <v>35.79959601751588</v>
+        <v>24.04579900190038</v>
       </c>
       <c r="G8">
-        <v>2.078367355712938</v>
+        <v>2.07283204863323</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.605700403572541</v>
+        <v>6.328128462010532</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.98875979468246</v>
+        <v>11.64715863970987</v>
       </c>
       <c r="O8">
-        <v>25.52362326614076</v>
+        <v>16.47583184992401</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11208558831432</v>
+        <v>24.12365027381585</v>
       </c>
       <c r="C9">
-        <v>21.36037258444869</v>
+        <v>16.52403754500237</v>
       </c>
       <c r="D9">
-        <v>4.966573665016728</v>
+        <v>7.895067249500111</v>
       </c>
       <c r="E9">
-        <v>10.53837022181222</v>
+        <v>11.90991294494926</v>
       </c>
       <c r="F9">
-        <v>39.57813143544098</v>
+        <v>26.02153316791786</v>
       </c>
       <c r="G9">
-        <v>2.051660013503366</v>
+        <v>2.058064214650282</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.95347036110215</v>
+        <v>6.64289413903665</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.24538273054965</v>
+        <v>11.31934572508923</v>
       </c>
       <c r="O9">
-        <v>27.90797313540596</v>
+        <v>17.38703643713416</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.95839754643707</v>
+        <v>26.31286194398708</v>
       </c>
       <c r="C10">
-        <v>23.45479392658273</v>
+        <v>17.96133058340591</v>
       </c>
       <c r="D10">
-        <v>5.249821742010914</v>
+        <v>8.415448057370893</v>
       </c>
       <c r="E10">
-        <v>11.24329675756081</v>
+        <v>12.70708931812574</v>
       </c>
       <c r="F10">
-        <v>42.41410749424517</v>
+        <v>27.52032467209907</v>
       </c>
       <c r="G10">
-        <v>2.032444232651526</v>
+        <v>2.047680319882213</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.23006000615734</v>
+        <v>6.886240258751493</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.70196355831491</v>
+        <v>11.09791441762658</v>
       </c>
       <c r="O10">
-        <v>29.74174171269527</v>
+        <v>18.13120347262818</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.20293003606506</v>
+        <v>27.25713444601675</v>
       </c>
       <c r="C11">
-        <v>24.37048856310082</v>
+        <v>18.58131223157303</v>
       </c>
       <c r="D11">
-        <v>5.376258285712592</v>
+        <v>8.645654290677014</v>
       </c>
       <c r="E11">
-        <v>11.56189782308302</v>
+        <v>13.06241615935669</v>
       </c>
       <c r="F11">
-        <v>43.71814883600567</v>
+        <v>28.21063036451599</v>
       </c>
       <c r="G11">
-        <v>2.023734557915931</v>
+        <v>2.043043704952248</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.360820952505287</v>
+        <v>6.999399788861334</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.45395710749779</v>
+        <v>11.00166787206178</v>
       </c>
       <c r="O11">
-        <v>30.59490565096284</v>
+        <v>18.48591845061824</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.66733430803247</v>
+        <v>27.607393307628</v>
       </c>
       <c r="C12">
-        <v>24.7121994027104</v>
+        <v>18.8112713055688</v>
       </c>
       <c r="D12">
-        <v>5.423775492363052</v>
+        <v>8.731848464175036</v>
       </c>
       <c r="E12">
-        <v>11.68226017532253</v>
+        <v>13.19585742325923</v>
       </c>
       <c r="F12">
-        <v>44.21418398615463</v>
+        <v>28.47313760543145</v>
       </c>
       <c r="G12">
-        <v>2.020435573652164</v>
+        <v>2.04129921843724</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.411086275144611</v>
+        <v>7.042592043179775</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.35979811678269</v>
+        <v>10.96589428246108</v>
       </c>
       <c r="O12">
-        <v>30.92089047802127</v>
+        <v>18.62256125853159</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.56761602677604</v>
+        <v>27.53228248200869</v>
       </c>
       <c r="C13">
-        <v>24.63882515551881</v>
+        <v>18.76195872758499</v>
       </c>
       <c r="D13">
-        <v>5.41355803950673</v>
+        <v>8.713329157198171</v>
       </c>
       <c r="E13">
-        <v>11.65635016173048</v>
+        <v>13.16716876571043</v>
       </c>
       <c r="F13">
-        <v>44.10725016662386</v>
+        <v>28.41655445896437</v>
       </c>
       <c r="G13">
-        <v>2.021146198981151</v>
+        <v>2.041674442781834</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.400226695464614</v>
+        <v>7.033274815195213</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.38009001687448</v>
+        <v>10.97356834603051</v>
       </c>
       <c r="O13">
-        <v>30.85055055842593</v>
+        <v>18.59302968996565</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.24127238929054</v>
+        <v>27.2860964716798</v>
       </c>
       <c r="C14">
-        <v>24.39870060391247</v>
+        <v>18.60032726953541</v>
       </c>
       <c r="D14">
-        <v>5.380174856296927</v>
+        <v>8.652765383520416</v>
       </c>
       <c r="E14">
-        <v>11.57180564483362</v>
+        <v>13.07341705430308</v>
       </c>
       <c r="F14">
-        <v>43.75891166880884</v>
+        <v>28.23220544875792</v>
       </c>
       <c r="G14">
-        <v>2.023463198356227</v>
+        <v>2.042899965888897</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.364941040161671</v>
+        <v>7.002946466091958</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.44621627801361</v>
+        <v>10.99871109580655</v>
       </c>
       <c r="O14">
-        <v>30.62166494546687</v>
+        <v>18.49711367381007</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.04049379736529</v>
+        <v>27.13435078458784</v>
       </c>
       <c r="C15">
-        <v>24.25096983014294</v>
+        <v>18.50069801099489</v>
       </c>
       <c r="D15">
-        <v>5.359679309977817</v>
+        <v>8.615539620867935</v>
       </c>
       <c r="E15">
-        <v>11.51998343169089</v>
+        <v>13.01584491476757</v>
       </c>
       <c r="F15">
-        <v>43.54584252580125</v>
+        <v>28.11942706019721</v>
       </c>
       <c r="G15">
-        <v>2.024882148526823</v>
+        <v>2.043652067745571</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.343426427864856</v>
+        <v>6.98441358214809</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.48668462837668</v>
+        <v>11.01420029107341</v>
       </c>
       <c r="O15">
-        <v>30.48185175057487</v>
+        <v>18.43866429425895</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.87608215496056</v>
+        <v>26.25012183667562</v>
       </c>
       <c r="C16">
-        <v>23.39422896367164</v>
+        <v>17.92013658584324</v>
       </c>
       <c r="D16">
-        <v>5.241508829226786</v>
+        <v>8.400268492920542</v>
       </c>
       <c r="E16">
-        <v>11.22243422282025</v>
+        <v>12.68371503163618</v>
       </c>
       <c r="F16">
-        <v>42.32918153987467</v>
+        <v>27.4753717560163</v>
       </c>
       <c r="G16">
-        <v>2.033013624788546</v>
+        <v>2.047984983362136</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.221616938430964</v>
+        <v>6.878893389324723</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.71814451885553</v>
+        <v>11.10429689263888</v>
       </c>
       <c r="O16">
-        <v>29.68638086222125</v>
+        <v>18.1083470228663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.14911599816524</v>
+        <v>25.6945304487358</v>
       </c>
       <c r="C17">
-        <v>22.85934535682833</v>
+        <v>17.55534714964815</v>
       </c>
       <c r="D17">
-        <v>5.168384040881037</v>
+        <v>8.266503508839605</v>
       </c>
       <c r="E17">
-        <v>11.03936733865384</v>
+        <v>12.47804144221292</v>
       </c>
       <c r="F17">
-        <v>41.58648469003077</v>
+        <v>27.08234750632743</v>
       </c>
       <c r="G17">
-        <v>2.038006534341698</v>
+        <v>2.050664547684606</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.14818021371977</v>
+        <v>6.814780547408213</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.8598448384505</v>
+        <v>11.16073538397178</v>
       </c>
       <c r="O17">
-        <v>29.20334806439889</v>
+        <v>17.90984794711922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.72622869995865</v>
+        <v>25.37010457425231</v>
       </c>
       <c r="C18">
-        <v>22.54818618326312</v>
+        <v>17.34234025124083</v>
       </c>
       <c r="D18">
-        <v>5.126097728717503</v>
+        <v>8.188953806437018</v>
       </c>
       <c r="E18">
-        <v>10.93387453834576</v>
+        <v>12.35905763971156</v>
       </c>
       <c r="F18">
-        <v>41.16059669844987</v>
+        <v>26.85709554648269</v>
       </c>
       <c r="G18">
-        <v>2.040881667111954</v>
+        <v>2.052214036242184</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.106403367061803</v>
+        <v>6.778136715185824</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.94128011857299</v>
+        <v>11.19361741922258</v>
       </c>
       <c r="O18">
-        <v>28.92729063106984</v>
+        <v>17.79720079809971</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.5822195037402</v>
+        <v>25.2594209599499</v>
       </c>
       <c r="C19">
-        <v>22.44222231502502</v>
+        <v>17.26967041992172</v>
       </c>
       <c r="D19">
-        <v>5.111741907455079</v>
+        <v>8.1625932400928</v>
       </c>
       <c r="E19">
-        <v>10.89812258786369</v>
+        <v>12.31865616160228</v>
       </c>
       <c r="F19">
-        <v>41.01661564148799</v>
+        <v>26.78097149417018</v>
       </c>
       <c r="G19">
-        <v>2.041855864079187</v>
+        <v>2.052740123223719</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.092336777153878</v>
+        <v>6.765770044116147</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.96884489801427</v>
+        <v>11.20482207285659</v>
       </c>
       <c r="O19">
-        <v>28.83412218702214</v>
+        <v>17.75932250124592</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.2269925523695</v>
+        <v>25.75417680229357</v>
       </c>
       <c r="C20">
-        <v>22.91664575676696</v>
+        <v>17.59450935861528</v>
       </c>
       <c r="D20">
-        <v>5.176191907758485</v>
+        <v>8.280806663433102</v>
       </c>
       <c r="E20">
-        <v>11.05887555817992</v>
+        <v>12.50000722863746</v>
       </c>
       <c r="F20">
-        <v>41.66541119837994</v>
+        <v>27.12410322844357</v>
       </c>
       <c r="G20">
-        <v>2.037474721223222</v>
+        <v>2.0503784557081</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.155949613167044</v>
+        <v>6.821581538505153</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.8447684200854</v>
+        <v>11.1546837396292</v>
       </c>
       <c r="O20">
-        <v>29.25458346680064</v>
+        <v>17.93082082637775</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.33731088067031</v>
+        <v>27.35860498201472</v>
       </c>
       <c r="C21">
-        <v>24.46936538728169</v>
+        <v>18.64793256110145</v>
       </c>
       <c r="D21">
-        <v>5.389990195759575</v>
+        <v>8.670581314915529</v>
       </c>
       <c r="E21">
-        <v>11.59664591234893</v>
+        <v>13.10098482196991</v>
       </c>
       <c r="F21">
-        <v>43.86116439585147</v>
+        <v>28.28632406760679</v>
       </c>
       <c r="G21">
-        <v>2.022782708247671</v>
+        <v>2.042539703608508</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.375284603480627</v>
+        <v>7.011845464431741</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.42680112342455</v>
+        <v>10.99130755405494</v>
       </c>
       <c r="O21">
-        <v>30.68881333879001</v>
+        <v>18.52522361506246</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.67666620818553</v>
+        <v>28.3645968007907</v>
       </c>
       <c r="C22">
-        <v>25.45492584612932</v>
+        <v>19.30837133950716</v>
       </c>
       <c r="D22">
-        <v>5.527611090851024</v>
+        <v>8.919597304604794</v>
       </c>
       <c r="E22">
-        <v>11.94647490908019</v>
+        <v>13.48725317699134</v>
       </c>
       <c r="F22">
-        <v>45.30937330053212</v>
+        <v>29.05230164885852</v>
       </c>
       <c r="G22">
-        <v>2.013172795612629</v>
+        <v>2.037481847023032</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.523024488046652</v>
+        <v>7.138178883227727</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.15214049702416</v>
+        <v>10.88846997161662</v>
       </c>
       <c r="O22">
-        <v>31.64327724335265</v>
+        <v>18.92722247666022</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.96534334957313</v>
+        <v>27.8315415107047</v>
       </c>
       <c r="C23">
-        <v>24.93148316411573</v>
+        <v>18.95842889753701</v>
       </c>
       <c r="D23">
-        <v>5.454355911441609</v>
+        <v>8.787227963474955</v>
       </c>
       <c r="E23">
-        <v>11.75990266241348</v>
+        <v>13.28170549474956</v>
       </c>
       <c r="F23">
-        <v>44.5351254329626</v>
+        <v>28.64293059735014</v>
       </c>
       <c r="G23">
-        <v>2.018304480304719</v>
+        <v>2.040175781714435</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.443755389168406</v>
+        <v>7.070574171158199</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.29891532462598</v>
+        <v>10.94298558915349</v>
       </c>
       <c r="O23">
-        <v>31.13221288994409</v>
+        <v>18.71143229869663</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.19179999027627</v>
+        <v>25.72722629560012</v>
       </c>
       <c r="C24">
-        <v>22.89075162819358</v>
+        <v>17.57681435866532</v>
       </c>
       <c r="D24">
-        <v>5.172662735865379</v>
+        <v>8.274342217370897</v>
       </c>
       <c r="E24">
-        <v>11.0500566565362</v>
+        <v>12.4900787945067</v>
       </c>
       <c r="F24">
-        <v>41.6297251176482</v>
+        <v>27.10522326765532</v>
       </c>
       <c r="G24">
-        <v>2.037715139077674</v>
+        <v>2.050507769855872</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.152435690906418</v>
+        <v>6.818506138220591</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.85158455310678</v>
+        <v>11.15741833582467</v>
       </c>
       <c r="O24">
-        <v>29.23141483151784</v>
+        <v>17.92133440010194</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.01722279319371</v>
+        <v>23.27101445058902</v>
       </c>
       <c r="C25">
-        <v>20.55449212875899</v>
+        <v>15.96440343774861</v>
       </c>
       <c r="D25">
-        <v>4.860261589295294</v>
+        <v>7.697998952465346</v>
       </c>
       <c r="E25">
-        <v>10.27699308406176</v>
+        <v>11.61037542111823</v>
       </c>
       <c r="F25">
-        <v>38.54535999049256</v>
+        <v>25.4780664997671</v>
       </c>
       <c r="G25">
-        <v>2.058796523564121</v>
+        <v>2.06197302422844</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.855785022572507</v>
+        <v>6.555556142162006</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.44557341365273</v>
+        <v>11.40470052024792</v>
       </c>
       <c r="O25">
-        <v>27.24871880091171</v>
+        <v>17.1274033877561</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.29825819418657</v>
+        <v>19.54090053739027</v>
       </c>
       <c r="C2">
-        <v>14.67029997986084</v>
+        <v>15.11444096376433</v>
       </c>
       <c r="D2">
-        <v>7.255855573924529</v>
+        <v>8.106657941750198</v>
       </c>
       <c r="E2">
-        <v>10.94359949895674</v>
+        <v>11.33467844984593</v>
       </c>
       <c r="F2">
-        <v>24.31254685450186</v>
+        <v>20.65102816875873</v>
       </c>
       <c r="G2">
-        <v>2.070732996809663</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>21.69383558546663</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.276511510213191</v>
       </c>
       <c r="J2">
-        <v>6.370152244932494</v>
+        <v>8.292765079445658</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.57623920666258</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.288120480446165</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.59970368416773</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.59309599656901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.18250330579498</v>
+      </c>
+      <c r="Q2">
+        <v>13.62866006791261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.85693696872408</v>
+        <v>18.26299825352437</v>
       </c>
       <c r="C3">
-        <v>13.72584812413695</v>
+        <v>14.20868312327731</v>
       </c>
       <c r="D3">
-        <v>6.946572834078729</v>
+        <v>7.755500266719791</v>
       </c>
       <c r="E3">
-        <v>10.48205352837563</v>
+        <v>10.85504228562849</v>
       </c>
       <c r="F3">
-        <v>23.54637279343334</v>
+        <v>20.08721634986044</v>
       </c>
       <c r="G3">
-        <v>2.0768874701919</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.96000580451858</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.126176647923379</v>
       </c>
       <c r="J3">
-        <v>6.249913478039235</v>
+        <v>8.279370323588889</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.72703983085272</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.169813702194268</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.73960201261923</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.26225168450779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.18675544233352</v>
+      </c>
+      <c r="Q3">
+        <v>13.45439684607979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91987460438813</v>
+        <v>17.42828104127555</v>
       </c>
       <c r="C4">
-        <v>13.11251562420384</v>
+        <v>13.62543822749084</v>
       </c>
       <c r="D4">
-        <v>6.752536388211486</v>
+        <v>7.535731599899453</v>
       </c>
       <c r="E4">
-        <v>10.19483791288564</v>
+        <v>10.55600863603888</v>
       </c>
       <c r="F4">
-        <v>23.08889669017823</v>
+        <v>19.74692635387124</v>
       </c>
       <c r="G4">
-        <v>2.080779631713158</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>20.5138463149843</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.031137688358827</v>
       </c>
       <c r="J4">
-        <v>6.178855341097096</v>
+        <v>8.275516641208403</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.82569487190581</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.099305699350306</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.82923229645132</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.07441529594741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.19279165114906</v>
+      </c>
+      <c r="Q4">
+        <v>13.35539451641699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.52483064858136</v>
+        <v>17.07071514102647</v>
       </c>
       <c r="C5">
-        <v>12.85415431329338</v>
+        <v>13.39070760124487</v>
       </c>
       <c r="D5">
-        <v>6.672533652125861</v>
+        <v>7.446703720396341</v>
       </c>
       <c r="E5">
-        <v>10.07699829207591</v>
+        <v>10.43385534477856</v>
       </c>
       <c r="F5">
-        <v>22.90592769983499</v>
+        <v>19.60412991753072</v>
       </c>
       <c r="G5">
-        <v>2.08239501978583</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>20.32269050332851</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.992106274766328</v>
       </c>
       <c r="J5">
-        <v>6.150609723749625</v>
+        <v>8.273320264413975</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.86357376337402</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.071011012169702</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.86668445225849</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.00169022546405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.19739875930288</v>
+      </c>
+      <c r="Q5">
+        <v>13.31267195723401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.45843516424259</v>
+        <v>17.0047353996722</v>
       </c>
       <c r="C6">
-        <v>12.81074459226954</v>
+        <v>13.36320661272647</v>
       </c>
       <c r="D6">
-        <v>6.659196462129667</v>
+        <v>7.433632864385221</v>
       </c>
       <c r="E6">
-        <v>10.05738818685453</v>
+        <v>10.41432670827623</v>
       </c>
       <c r="F6">
-        <v>22.87576033513061</v>
+        <v>19.57344805985682</v>
       </c>
       <c r="G6">
-        <v>2.082665046452617</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>20.27792719097054</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.986252042849459</v>
       </c>
       <c r="J6">
-        <v>6.145962921189128</v>
+        <v>8.270945837008412</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.86531829304326</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.066196363943041</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.87295904732061</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.98984387210775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.19981609973092</v>
+      </c>
+      <c r="Q6">
+        <v>13.3003458866536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91460039590025</v>
+        <v>17.40793589515257</v>
       </c>
       <c r="C7">
-        <v>13.10906539315818</v>
+        <v>13.6540559455961</v>
       </c>
       <c r="D7">
-        <v>6.751461060214995</v>
+        <v>7.539272965341061</v>
       </c>
       <c r="E7">
-        <v>10.19325168079859</v>
+        <v>10.55653163865325</v>
       </c>
       <c r="F7">
-        <v>23.0864148516096</v>
+        <v>19.72583544830688</v>
       </c>
       <c r="G7">
-        <v>2.080801297717209</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>20.47583528594823</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.032132046060615</v>
       </c>
       <c r="J7">
-        <v>6.178471512676666</v>
+        <v>8.269825848720602</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.81351261012543</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.098510652233657</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.82973364936093</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.07341908220269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.19728907420254</v>
+      </c>
+      <c r="Q7">
+        <v>13.34024923905238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.81204846437233</v>
+        <v>19.09162656466848</v>
       </c>
       <c r="C8">
-        <v>14.35158005525482</v>
+        <v>14.84686115055045</v>
       </c>
       <c r="D8">
-        <v>7.150134005780759</v>
+        <v>7.992445117299331</v>
       </c>
       <c r="E8">
-        <v>10.78534480057608</v>
+        <v>11.17305117585447</v>
       </c>
       <c r="F8">
-        <v>24.04579900190038</v>
+        <v>20.43097297053641</v>
       </c>
       <c r="G8">
-        <v>2.07283204863323</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>21.39504364604066</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.226830703282668</v>
       </c>
       <c r="J8">
-        <v>6.328128462010532</v>
+        <v>8.279770077372747</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.61000492631568</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.246362642465114</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.64715863970987</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.47583184992401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.18939197412523</v>
+      </c>
+      <c r="Q8">
+        <v>13.54794196939416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.12365027381585</v>
+        <v>22.02277045341627</v>
       </c>
       <c r="C9">
-        <v>16.52403754500237</v>
+        <v>16.91841889972049</v>
       </c>
       <c r="D9">
-        <v>7.895067249500111</v>
+        <v>8.835239417194899</v>
       </c>
       <c r="E9">
-        <v>11.90991294494926</v>
+        <v>12.33539119246774</v>
       </c>
       <c r="F9">
-        <v>26.02153316791786</v>
+        <v>21.88577839920609</v>
       </c>
       <c r="G9">
-        <v>2.058064214650282</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>23.28164015259607</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.585834726754956</v>
       </c>
       <c r="J9">
-        <v>6.64289413903665</v>
+        <v>8.345356820309975</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.28482340791878</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.552825502287618</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.31934572508923</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.38703643713416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.1935287772631</v>
+      </c>
+      <c r="Q9">
+        <v>14.04459173872898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.31286194398708</v>
+        <v>23.93207033292076</v>
       </c>
       <c r="C10">
-        <v>17.96133058340591</v>
+        <v>18.32048862717267</v>
       </c>
       <c r="D10">
-        <v>8.415448057370893</v>
+        <v>9.427566825401099</v>
       </c>
       <c r="E10">
-        <v>12.70708931812574</v>
+        <v>13.15600626656317</v>
       </c>
       <c r="F10">
-        <v>27.52032467209907</v>
+        <v>22.96043889835964</v>
       </c>
       <c r="G10">
-        <v>2.047680319882213</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>24.65359522588193</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.838542211612361</v>
       </c>
       <c r="J10">
-        <v>6.886240258751493</v>
+        <v>8.414529531352134</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.07475370031347</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.785917093535302</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.09791441762658</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.13120347262818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.2174487208031</v>
+      </c>
+      <c r="Q10">
+        <v>14.44174422309724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.25713444601675</v>
+        <v>24.73140560832584</v>
       </c>
       <c r="C11">
-        <v>18.58131223157303</v>
+        <v>18.96759422154777</v>
       </c>
       <c r="D11">
-        <v>8.645654290677014</v>
+        <v>9.695815171277825</v>
       </c>
       <c r="E11">
-        <v>13.06241615935669</v>
+        <v>13.52328544900879</v>
       </c>
       <c r="F11">
-        <v>28.21063036451599</v>
+        <v>23.42436422379638</v>
       </c>
       <c r="G11">
-        <v>2.043043704952248</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>25.22888435132715</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.954042765506681</v>
       </c>
       <c r="J11">
-        <v>6.999399788861334</v>
+        <v>8.442586494265498</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.96624537712012</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.892788888009425</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.00166787206178</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.48591845061824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.24110077940005</v>
+      </c>
+      <c r="Q11">
+        <v>14.60930650950763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.607393307628</v>
+        <v>25.03697013187669</v>
       </c>
       <c r="C12">
-        <v>18.8112713055688</v>
+        <v>19.18740045817242</v>
       </c>
       <c r="D12">
-        <v>8.731848464175036</v>
+        <v>9.793012493296107</v>
       </c>
       <c r="E12">
-        <v>13.19585742325923</v>
+        <v>13.65954289244099</v>
       </c>
       <c r="F12">
-        <v>28.47313760543145</v>
+        <v>23.61446657758707</v>
       </c>
       <c r="G12">
-        <v>2.04129921843724</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>25.471981704055</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.995968989697421</v>
       </c>
       <c r="J12">
-        <v>7.042592043179775</v>
+        <v>8.458814834819636</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.9379406450916</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.933781416082994</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.96589428246108</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.62256125853159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.24625516390159</v>
+      </c>
+      <c r="Q12">
+        <v>14.68562113297019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.53228248200869</v>
+        <v>24.9734637368857</v>
       </c>
       <c r="C13">
-        <v>18.76195872758499</v>
+        <v>19.13612104761569</v>
       </c>
       <c r="D13">
-        <v>8.713329157198171</v>
+        <v>9.771484195426529</v>
       </c>
       <c r="E13">
-        <v>13.16716876571043</v>
+        <v>13.62996761129367</v>
       </c>
       <c r="F13">
-        <v>28.41655445896437</v>
+        <v>23.57635439891417</v>
       </c>
       <c r="G13">
-        <v>2.041674442781834</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>25.42469431484399</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.986601388850654</v>
       </c>
       <c r="J13">
-        <v>7.033274815195213</v>
+        <v>8.456239259463333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.94628572533036</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.925012154382822</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.97356834603051</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.59302968996565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.24421207343143</v>
+      </c>
+      <c r="Q13">
+        <v>14.67144554571478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.2860964716798</v>
+        <v>24.75753771246773</v>
       </c>
       <c r="C14">
-        <v>18.60032726953541</v>
+        <v>18.98399516122649</v>
       </c>
       <c r="D14">
-        <v>8.652765383520416</v>
+        <v>9.7035580712294</v>
       </c>
       <c r="E14">
-        <v>13.07341705430308</v>
+        <v>13.53439831077558</v>
       </c>
       <c r="F14">
-        <v>28.23220544875792</v>
+        <v>23.44121265101123</v>
       </c>
       <c r="G14">
-        <v>2.042899965888897</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>25.25105149073584</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.957343009031778</v>
       </c>
       <c r="J14">
-        <v>7.002946466091958</v>
+        <v>8.444311935776835</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.96486932271004</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.896186363992671</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.99871109580655</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.49711367381007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.24112868827547</v>
+      </c>
+      <c r="Q14">
+        <v>14.6165473029835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.13435078458784</v>
+        <v>24.6203718667824</v>
       </c>
       <c r="C15">
-        <v>18.50069801099489</v>
+        <v>18.89852116740713</v>
       </c>
       <c r="D15">
-        <v>8.615539620867935</v>
+        <v>9.663094871614888</v>
       </c>
       <c r="E15">
-        <v>13.01584491476757</v>
+        <v>13.47626375983447</v>
       </c>
       <c r="F15">
-        <v>28.11942706019721</v>
+        <v>23.35280388418137</v>
       </c>
       <c r="G15">
-        <v>2.043652067745571</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>25.13456255401253</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.940154166989199</v>
       </c>
       <c r="J15">
-        <v>6.98441358214809</v>
+        <v>8.435224851196397</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.97189504081928</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.878420368046267</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.01420029107341</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.43866429425895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.24109643325433</v>
+      </c>
+      <c r="Q15">
+        <v>14.57848859268537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.25012183667562</v>
+        <v>23.8446769553065</v>
       </c>
       <c r="C16">
-        <v>17.92013658584324</v>
+        <v>18.34862673820012</v>
       </c>
       <c r="D16">
-        <v>8.400268492920542</v>
+        <v>9.420952180893053</v>
       </c>
       <c r="E16">
-        <v>12.68371503163618</v>
+        <v>13.13682061860374</v>
       </c>
       <c r="F16">
-        <v>27.4753717560163</v>
+        <v>22.88192967206754</v>
       </c>
       <c r="G16">
-        <v>2.047984983362136</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>24.52959409428363</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.836454517172292</v>
       </c>
       <c r="J16">
-        <v>6.878893389324723</v>
+        <v>8.396824806539428</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.04390069765054</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.777832612097212</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.10429689263888</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>18.1083470228663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.23079118538122</v>
+      </c>
+      <c r="Q16">
+        <v>14.39191458120431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.6945304487358</v>
+        <v>23.35576337045492</v>
       </c>
       <c r="C17">
-        <v>17.55534714964815</v>
+        <v>18.00398310173591</v>
       </c>
       <c r="D17">
-        <v>8.266503508839605</v>
+        <v>9.270527047960281</v>
       </c>
       <c r="E17">
-        <v>12.47804144221292</v>
+        <v>12.9262907521837</v>
       </c>
       <c r="F17">
-        <v>27.08234750632743</v>
+        <v>22.59335648232704</v>
       </c>
       <c r="G17">
-        <v>2.050664547684606</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>24.15784448896924</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.772402656315577</v>
       </c>
       <c r="J17">
-        <v>6.814780547408213</v>
+        <v>8.374760896205327</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.09057272542868</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.716485049589425</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.16073538397178</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.90984794711922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.22549031625573</v>
+      </c>
+      <c r="Q17">
+        <v>14.27970787797982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.37010457425231</v>
+        <v>23.08039464668269</v>
       </c>
       <c r="C18">
-        <v>17.34234025124083</v>
+        <v>17.78091408314581</v>
       </c>
       <c r="D18">
-        <v>8.188953806437018</v>
+        <v>9.179893078723543</v>
       </c>
       <c r="E18">
-        <v>12.35905763971156</v>
+        <v>12.80282631060219</v>
       </c>
       <c r="F18">
-        <v>26.85709554648269</v>
+        <v>22.44242208586451</v>
       </c>
       <c r="G18">
-        <v>2.052214036242184</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>23.97063073268209</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.732969683401715</v>
       </c>
       <c r="J18">
-        <v>6.778136715185824</v>
+        <v>8.367473708959038</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.12976234349823</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.681684621063345</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.19361741922258</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.79720079809971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.21836745620814</v>
+      </c>
+      <c r="Q18">
+        <v>14.2279738653611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.2594209599499</v>
+        <v>22.97813126049859</v>
       </c>
       <c r="C19">
-        <v>17.26967041992172</v>
+        <v>17.72197460498662</v>
       </c>
       <c r="D19">
-        <v>8.1625932400928</v>
+        <v>9.151742770474854</v>
       </c>
       <c r="E19">
-        <v>12.31865616160228</v>
+        <v>12.76208580888891</v>
       </c>
       <c r="F19">
-        <v>26.78097149417018</v>
+        <v>22.37988075752778</v>
       </c>
       <c r="G19">
-        <v>2.052740123223719</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>23.88660471122741</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.72139261795367</v>
       </c>
       <c r="J19">
-        <v>6.765770044116147</v>
+        <v>8.361348050403244</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.13433513600925</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.669660920678902</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.20482207285659</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.75932250124592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.21944657294736</v>
+      </c>
+      <c r="Q19">
+        <v>14.20137508940578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.75417680229357</v>
+        <v>23.40913297208559</v>
       </c>
       <c r="C20">
-        <v>17.59450935861528</v>
+        <v>18.03923028782807</v>
       </c>
       <c r="D20">
-        <v>8.280806663433102</v>
+        <v>9.286342572706062</v>
       </c>
       <c r="E20">
-        <v>12.50000722863746</v>
+        <v>12.9486660384786</v>
       </c>
       <c r="F20">
-        <v>27.12410322844357</v>
+        <v>22.62522041740188</v>
       </c>
       <c r="G20">
-        <v>2.0503784557081</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>24.1995187692987</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.779043135250757</v>
       </c>
       <c r="J20">
-        <v>6.821581538505153</v>
+        <v>8.377434577087008</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.0864129753195</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.723028234334698</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.1546837396292</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.93082082637775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.22566600565715</v>
+      </c>
+      <c r="Q20">
+        <v>14.29250156415351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.35860498201472</v>
+        <v>24.81001148925987</v>
       </c>
       <c r="C21">
-        <v>18.64793256110145</v>
+        <v>19.05200792385879</v>
       </c>
       <c r="D21">
-        <v>8.670581314915529</v>
+        <v>9.727167272857887</v>
       </c>
       <c r="E21">
-        <v>13.10098482196991</v>
+        <v>13.56414143571426</v>
       </c>
       <c r="F21">
-        <v>28.28632406760679</v>
+        <v>23.46498694073567</v>
       </c>
       <c r="G21">
-        <v>2.042539703608508</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>25.27367848668274</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.968154232838097</v>
       </c>
       <c r="J21">
-        <v>7.011845464431741</v>
+        <v>8.4424233965408</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.94642977376298</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.904271433035778</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.99130755405494</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.52522361506246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.24708583337868</v>
+      </c>
+      <c r="Q21">
+        <v>14.61963911924429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.3645968007907</v>
+        <v>25.6972290648581</v>
       </c>
       <c r="C22">
-        <v>19.30837133950716</v>
+        <v>19.66059882428412</v>
       </c>
       <c r="D22">
-        <v>8.919597304604794</v>
+        <v>10.00430622392341</v>
       </c>
       <c r="E22">
-        <v>13.48725317699134</v>
+        <v>13.95650971368568</v>
       </c>
       <c r="F22">
-        <v>29.05230164885852</v>
+        <v>24.03444855049405</v>
       </c>
       <c r="G22">
-        <v>2.037481847023032</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>26.00902820438582</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.087451371586516</v>
       </c>
       <c r="J22">
-        <v>7.138178883227727</v>
+        <v>8.496709681430712</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.87998026408528</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.024285155818045</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.88846997161662</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.92722247666022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.25807437363753</v>
+      </c>
+      <c r="Q22">
+        <v>14.85723830116731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.8315415107047</v>
+        <v>25.24087857106215</v>
       </c>
       <c r="C23">
-        <v>18.95842889753701</v>
+        <v>19.31024296603226</v>
       </c>
       <c r="D23">
-        <v>8.787227963474955</v>
+        <v>9.852657178475035</v>
       </c>
       <c r="E23">
-        <v>13.28170549474956</v>
+        <v>13.74588102057608</v>
       </c>
       <c r="F23">
-        <v>28.64293059735014</v>
+        <v>23.7495760726039</v>
       </c>
       <c r="G23">
-        <v>2.040175781714435</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>25.65079909767627</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.021572170216347</v>
       </c>
       <c r="J23">
-        <v>7.070574171158199</v>
+        <v>8.473728941003912</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.93025960111092</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.960592911948709</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.94298558915349</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.71143229869663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.24576473805568</v>
+      </c>
+      <c r="Q23">
+        <v>14.74536320243524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.72722629560012</v>
+        <v>23.40730980822284</v>
       </c>
       <c r="C24">
-        <v>17.57681435866532</v>
+        <v>17.97695289003273</v>
       </c>
       <c r="D24">
-        <v>8.274342217370897</v>
+        <v>9.271983491183402</v>
       </c>
       <c r="E24">
-        <v>12.4900787945067</v>
+        <v>12.9352907054516</v>
       </c>
       <c r="F24">
-        <v>27.10522326765532</v>
+        <v>22.64209277815172</v>
       </c>
       <c r="G24">
-        <v>2.050507769855872</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>24.23683831621387</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.771715547225746</v>
       </c>
       <c r="J24">
-        <v>6.818506138220591</v>
+        <v>8.386499614730068</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.11262169247878</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.720796639571377</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.15741833582467</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.92133440010194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.2161543796385</v>
+      </c>
+      <c r="Q24">
+        <v>14.31193549032863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.27101445058902</v>
+        <v>21.24838967763108</v>
       </c>
       <c r="C25">
-        <v>15.96440343774861</v>
+        <v>16.42985758625549</v>
       </c>
       <c r="D25">
-        <v>7.697998952465346</v>
+        <v>8.619445188109916</v>
       </c>
       <c r="E25">
-        <v>11.61037542111823</v>
+        <v>12.02986634758718</v>
       </c>
       <c r="F25">
-        <v>25.4780664997671</v>
+        <v>21.45716915272734</v>
       </c>
       <c r="G25">
-        <v>2.06197302422844</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>22.71236748577829</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.493821768512543</v>
       </c>
       <c r="J25">
-        <v>6.555556142162006</v>
+        <v>8.313480281534096</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.34351593440462</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.467662591587306</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.40470052024792</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.1274033877561</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.19811655785768</v>
+      </c>
+      <c r="Q25">
+        <v>13.87814936444815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.54090053739027</v>
+        <v>19.36139976686268</v>
       </c>
       <c r="C2">
-        <v>15.11444096376433</v>
+        <v>15.39135198638347</v>
       </c>
       <c r="D2">
-        <v>8.106657941750198</v>
+        <v>8.154115305332601</v>
       </c>
       <c r="E2">
-        <v>11.33467844984593</v>
+        <v>11.35573814776903</v>
       </c>
       <c r="F2">
-        <v>20.65102816875873</v>
+        <v>20.46413791788558</v>
       </c>
       <c r="G2">
-        <v>21.69383558546663</v>
+        <v>20.69633425964831</v>
       </c>
       <c r="I2">
-        <v>3.276511510213191</v>
+        <v>3.26392093695292</v>
       </c>
       <c r="J2">
-        <v>8.292765079445658</v>
+        <v>8.859827462460855</v>
       </c>
       <c r="K2">
-        <v>11.57623920666258</v>
+        <v>11.41652398440966</v>
       </c>
       <c r="L2">
-        <v>6.288120480446165</v>
+        <v>10.66538677710704</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.249373951541887</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.285013802543644</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.18250330579498</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.62866006791261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.24348184874084</v>
+      </c>
+      <c r="S2">
+        <v>13.49937003946426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.26299825352437</v>
+        <v>18.12667139109896</v>
       </c>
       <c r="C3">
-        <v>14.20868312327731</v>
+        <v>14.39993676247438</v>
       </c>
       <c r="D3">
-        <v>7.755500266719791</v>
+        <v>7.793949250205685</v>
       </c>
       <c r="E3">
-        <v>10.85504228562849</v>
+        <v>10.87236789715525</v>
       </c>
       <c r="F3">
-        <v>20.08721634986044</v>
+        <v>19.93823056226726</v>
       </c>
       <c r="G3">
-        <v>20.96000580451858</v>
+        <v>20.00997821673567</v>
       </c>
       <c r="I3">
-        <v>3.126176647923379</v>
+        <v>3.129926314863087</v>
       </c>
       <c r="J3">
-        <v>8.279370323588889</v>
+        <v>8.82668724954174</v>
       </c>
       <c r="K3">
-        <v>11.72703983085272</v>
+        <v>11.57663063236867</v>
       </c>
       <c r="L3">
-        <v>6.169813702194268</v>
+        <v>10.85144318618264</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.30881904486343</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.167298605938266</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.18675544233352</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.45439684607979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.22188310627546</v>
+      </c>
+      <c r="S3">
+        <v>13.35024485473959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.42828104127555</v>
+        <v>17.31997282228327</v>
       </c>
       <c r="C4">
-        <v>13.62543822749084</v>
+        <v>13.76075612682748</v>
       </c>
       <c r="D4">
-        <v>7.535731599899453</v>
+        <v>7.568605270707842</v>
       </c>
       <c r="E4">
-        <v>10.55600863603888</v>
+        <v>10.57094212165958</v>
       </c>
       <c r="F4">
-        <v>19.74692635387124</v>
+        <v>19.61994329608748</v>
       </c>
       <c r="G4">
-        <v>20.5138463149843</v>
+        <v>19.5944126323262</v>
       </c>
       <c r="I4">
-        <v>3.031137688358827</v>
+        <v>3.045326131212389</v>
       </c>
       <c r="J4">
-        <v>8.275516641208403</v>
+        <v>8.808136083246422</v>
       </c>
       <c r="K4">
-        <v>11.82569487190581</v>
+        <v>11.67937473787141</v>
       </c>
       <c r="L4">
-        <v>6.099305699350306</v>
+        <v>10.9696347377194</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.371189004364474</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.097059442908846</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.19279165114906</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.35539451641699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.21227549283325</v>
+      </c>
+      <c r="S4">
+        <v>13.26522188210537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.07071514102647</v>
+        <v>16.97419513023059</v>
       </c>
       <c r="C5">
-        <v>13.39070760124487</v>
+        <v>13.50261478119058</v>
       </c>
       <c r="D5">
-        <v>7.446703720396341</v>
+        <v>7.477318120094056</v>
       </c>
       <c r="E5">
-        <v>10.43385534477856</v>
+        <v>10.44780050631197</v>
       </c>
       <c r="F5">
-        <v>19.60412991753072</v>
+        <v>19.48573935904816</v>
       </c>
       <c r="G5">
-        <v>20.32269050332851</v>
+        <v>19.41575856122641</v>
       </c>
       <c r="I5">
-        <v>2.992106274766328</v>
+        <v>3.010900300922558</v>
       </c>
       <c r="J5">
-        <v>8.273320264413975</v>
+        <v>8.799349431688814</v>
       </c>
       <c r="K5">
-        <v>11.86357376337402</v>
+        <v>11.71861194269103</v>
       </c>
       <c r="L5">
-        <v>6.071011012169702</v>
+        <v>11.01523682115073</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.401011603891791</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.068849851165542</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.19739875930288</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.31267195723401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.21061505342622</v>
+      </c>
+      <c r="S5">
+        <v>13.22782051790002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.0047353996722</v>
+        <v>16.91017362883415</v>
       </c>
       <c r="C6">
-        <v>13.36320661272647</v>
+        <v>13.47144711241804</v>
       </c>
       <c r="D6">
-        <v>7.433632864385221</v>
+        <v>7.463888618739335</v>
       </c>
       <c r="E6">
-        <v>10.41432670827623</v>
+        <v>10.42811347732505</v>
       </c>
       <c r="F6">
-        <v>19.57344805985682</v>
+        <v>19.45643343975376</v>
       </c>
       <c r="G6">
-        <v>20.27792719097054</v>
+        <v>19.37274765216336</v>
       </c>
       <c r="I6">
-        <v>2.986252042849459</v>
+        <v>3.006157379541897</v>
       </c>
       <c r="J6">
-        <v>8.270945837008412</v>
+        <v>8.795872373281764</v>
       </c>
       <c r="K6">
-        <v>11.86531829304326</v>
+        <v>11.72065765073758</v>
       </c>
       <c r="L6">
-        <v>6.066196363943041</v>
+        <v>11.01852568909552</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.404017491503682</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.06404627670771</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.19981609973092</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.3003458866536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.21205176298848</v>
+      </c>
+      <c r="S6">
+        <v>13.2163533641414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.40793589515257</v>
+        <v>17.29427032122911</v>
       </c>
       <c r="C7">
-        <v>13.6540559455961</v>
+        <v>13.7804915600973</v>
       </c>
       <c r="D7">
-        <v>7.539272965341061</v>
+        <v>7.575428679173651</v>
       </c>
       <c r="E7">
-        <v>10.55653163865325</v>
+        <v>10.57296141572902</v>
       </c>
       <c r="F7">
-        <v>19.72583544830688</v>
+        <v>19.58586128509597</v>
       </c>
       <c r="G7">
-        <v>20.47583528594823</v>
+        <v>19.65533810098443</v>
       </c>
       <c r="I7">
-        <v>3.032132046060615</v>
+        <v>3.046750242705231</v>
       </c>
       <c r="J7">
-        <v>8.269825848720602</v>
+        <v>8.76163908941302</v>
       </c>
       <c r="K7">
-        <v>11.81351261012543</v>
+        <v>11.66353303012567</v>
       </c>
       <c r="L7">
-        <v>6.098510652233657</v>
+        <v>10.95490550079997</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.362548758273653</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.095986894714541</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.19728907420254</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.34024923905238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.21851959962367</v>
+      </c>
+      <c r="S7">
+        <v>13.24039455867384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.09162656466848</v>
+        <v>18.90991518058146</v>
       </c>
       <c r="C8">
-        <v>14.84686115055045</v>
+        <v>15.06717002960035</v>
       </c>
       <c r="D8">
-        <v>7.992445117299331</v>
+        <v>8.047160042579748</v>
       </c>
       <c r="E8">
-        <v>11.17305117585447</v>
+        <v>11.19755123908674</v>
       </c>
       <c r="F8">
-        <v>20.43097297053641</v>
+        <v>20.21528383851599</v>
       </c>
       <c r="G8">
-        <v>21.39504364604066</v>
+        <v>20.73115142338365</v>
       </c>
       <c r="I8">
-        <v>3.226830703282668</v>
+        <v>3.219305574284111</v>
       </c>
       <c r="J8">
-        <v>8.279770077372747</v>
+        <v>8.707235597448623</v>
       </c>
       <c r="K8">
-        <v>11.61000492631568</v>
+        <v>11.44121709433292</v>
       </c>
       <c r="L8">
-        <v>6.246362642465114</v>
+        <v>10.70367662266472</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.243722661084933</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.242564363012045</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.18939197412523</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.54794196939416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.24746694944379</v>
+      </c>
+      <c r="S8">
+        <v>13.39567226193916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.02277045341627</v>
+        <v>21.73929590139069</v>
       </c>
       <c r="C9">
-        <v>16.91841889972049</v>
+        <v>17.32935172353063</v>
       </c>
       <c r="D9">
-        <v>8.835239417194899</v>
+        <v>8.913403304655342</v>
       </c>
       <c r="E9">
-        <v>12.33539119246774</v>
+        <v>12.36912287543641</v>
       </c>
       <c r="F9">
-        <v>21.88577839920609</v>
+        <v>21.56122285205583</v>
       </c>
       <c r="G9">
-        <v>23.28164015259607</v>
+        <v>22.56722329566198</v>
       </c>
       <c r="I9">
-        <v>3.585834726754956</v>
+        <v>3.538478030131357</v>
       </c>
       <c r="J9">
-        <v>8.345356820309975</v>
+        <v>8.771282411142893</v>
       </c>
       <c r="K9">
-        <v>11.28482340791878</v>
+        <v>11.07865033941452</v>
       </c>
       <c r="L9">
-        <v>6.552825502287618</v>
+        <v>10.2738671011051</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.246966506924472</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.546769876706275</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.1935287772631</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.04459173872898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.31900954746232</v>
+      </c>
+      <c r="S9">
+        <v>13.81426084388107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.93207033292076</v>
+        <v>23.55627897855717</v>
       </c>
       <c r="C10">
-        <v>18.32048862717267</v>
+        <v>18.81414193752383</v>
       </c>
       <c r="D10">
-        <v>9.427566825401099</v>
+        <v>9.53753896414365</v>
       </c>
       <c r="E10">
-        <v>13.15600626656317</v>
+        <v>13.20256862009354</v>
       </c>
       <c r="F10">
-        <v>22.96043889835964</v>
+        <v>22.48540308073601</v>
       </c>
       <c r="G10">
-        <v>24.65359522588193</v>
+        <v>24.40011477911633</v>
       </c>
       <c r="I10">
-        <v>3.838542211612361</v>
+        <v>3.761873886584079</v>
       </c>
       <c r="J10">
-        <v>8.414529531352134</v>
+        <v>8.600220244227685</v>
       </c>
       <c r="K10">
-        <v>11.07475370031347</v>
+        <v>10.80772989539089</v>
       </c>
       <c r="L10">
-        <v>6.785917093535302</v>
+        <v>9.957966920517286</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.353521779381071</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.776128563506068</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.2174487208031</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.44174422309724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.40438897618357</v>
+      </c>
+      <c r="S10">
+        <v>14.09466027375085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.73140560832584</v>
+        <v>24.27424903182101</v>
       </c>
       <c r="C11">
-        <v>18.96759422154777</v>
+        <v>19.42607171832056</v>
       </c>
       <c r="D11">
-        <v>9.695815171277825</v>
+        <v>9.846523328546365</v>
       </c>
       <c r="E11">
-        <v>13.52328544900879</v>
+        <v>13.58732714937217</v>
       </c>
       <c r="F11">
-        <v>23.42436422379638</v>
+        <v>22.76450315906923</v>
       </c>
       <c r="G11">
-        <v>25.22888435132715</v>
+        <v>26.02754274531305</v>
       </c>
       <c r="I11">
-        <v>3.954042765506681</v>
+        <v>3.862198579768485</v>
       </c>
       <c r="J11">
-        <v>8.442586494265498</v>
+        <v>8.144709362305273</v>
       </c>
       <c r="K11">
-        <v>10.96624537712012</v>
+        <v>10.62846540130025</v>
       </c>
       <c r="L11">
-        <v>6.892788888009425</v>
+        <v>9.783109800519661</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.366069034539287</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.878412630181613</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.24110077940005</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.60930650950763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.47674748218423</v>
+      </c>
+      <c r="S11">
+        <v>14.11452663703971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.03697013187669</v>
+        <v>24.54464638694829</v>
       </c>
       <c r="C12">
-        <v>19.18740045817242</v>
+        <v>19.62390101887038</v>
       </c>
       <c r="D12">
-        <v>9.793012493296107</v>
+        <v>9.962167379045239</v>
       </c>
       <c r="E12">
-        <v>13.65954289244099</v>
+        <v>13.73152791525277</v>
       </c>
       <c r="F12">
-        <v>23.61446657758707</v>
+        <v>22.87060924664887</v>
       </c>
       <c r="G12">
-        <v>25.471981704055</v>
+        <v>26.76801123991751</v>
       </c>
       <c r="I12">
-        <v>3.995968989697421</v>
+        <v>3.897267235379415</v>
       </c>
       <c r="J12">
-        <v>8.458814834819636</v>
+        <v>7.940700955442844</v>
       </c>
       <c r="K12">
-        <v>10.9379406450916</v>
+        <v>10.56653884333362</v>
       </c>
       <c r="L12">
-        <v>6.933781416082994</v>
+        <v>9.721598307946255</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.378961667250681</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.917298608039625</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.24625516390159</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.68562113297019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.50285450005468</v>
+      </c>
+      <c r="S12">
+        <v>14.12297009245923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.9734637368857</v>
+        <v>24.48891379447084</v>
       </c>
       <c r="C13">
-        <v>19.13612104761569</v>
+        <v>19.57765985762628</v>
       </c>
       <c r="D13">
-        <v>9.771484195426529</v>
+        <v>9.936525827617817</v>
       </c>
       <c r="E13">
-        <v>13.62996761129367</v>
+        <v>13.70018040495156</v>
       </c>
       <c r="F13">
-        <v>23.57635439891417</v>
+        <v>22.85120949941764</v>
       </c>
       <c r="G13">
-        <v>25.42469431484399</v>
+        <v>26.60930149033593</v>
       </c>
       <c r="I13">
-        <v>3.986601388850654</v>
+        <v>3.889213417353834</v>
       </c>
       <c r="J13">
-        <v>8.456239259463333</v>
+        <v>7.986757459596923</v>
       </c>
       <c r="K13">
-        <v>10.94628572533036</v>
+        <v>10.58219893287513</v>
       </c>
       <c r="L13">
-        <v>6.925012154382822</v>
+        <v>9.736137389317243</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.378448137336383</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.909000154331522</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.24421207343143</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.67144554571478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.49612041660214</v>
+      </c>
+      <c r="S13">
+        <v>14.12391549931975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.75753771246773</v>
+        <v>24.29757807652816</v>
       </c>
       <c r="C14">
-        <v>18.98399516122649</v>
+        <v>19.4408031473454</v>
       </c>
       <c r="D14">
-        <v>9.7035580712294</v>
+        <v>9.855720680941166</v>
       </c>
       <c r="E14">
-        <v>13.53439831077558</v>
+        <v>13.59906584919751</v>
       </c>
       <c r="F14">
-        <v>23.44121265101123</v>
+        <v>22.77472156139174</v>
       </c>
       <c r="G14">
-        <v>25.25105149073584</v>
+        <v>26.08868728866042</v>
       </c>
       <c r="I14">
-        <v>3.957343009031778</v>
+        <v>3.864864648071629</v>
       </c>
       <c r="J14">
-        <v>8.444311935776835</v>
+        <v>8.128896133369148</v>
       </c>
       <c r="K14">
-        <v>10.96486932271004</v>
+        <v>10.62436472894865</v>
       </c>
       <c r="L14">
-        <v>6.896186363992671</v>
+        <v>9.778609310749989</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.368089388979612</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.881644485010212</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.24112868827547</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.6165473029835</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.47842129208236</v>
+      </c>
+      <c r="S14">
+        <v>14.11641128526337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.6203718667824</v>
+        <v>24.17489252243898</v>
       </c>
       <c r="C15">
-        <v>18.89852116740713</v>
+        <v>19.36373405409431</v>
       </c>
       <c r="D15">
-        <v>9.663094871614888</v>
+        <v>9.807775502509401</v>
       </c>
       <c r="E15">
-        <v>13.47626375983447</v>
+        <v>13.53771281718421</v>
       </c>
       <c r="F15">
-        <v>23.35280388418137</v>
+        <v>22.72041517491207</v>
       </c>
       <c r="G15">
-        <v>25.13456255401253</v>
+        <v>25.77234636558984</v>
       </c>
       <c r="I15">
-        <v>3.940154166989199</v>
+        <v>3.851007978777675</v>
       </c>
       <c r="J15">
-        <v>8.435224851196397</v>
+        <v>8.210104135076946</v>
       </c>
       <c r="K15">
-        <v>10.97189504081928</v>
+        <v>10.64540101434281</v>
       </c>
       <c r="L15">
-        <v>6.878420368046267</v>
+        <v>9.801923823385378</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.357222802797924</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.864729375402151</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.24109643325433</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.57848859268537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.46989718493786</v>
+      </c>
+      <c r="S15">
+        <v>14.10588113135896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.8446769553065</v>
+        <v>23.47346596390958</v>
       </c>
       <c r="C16">
-        <v>18.34862673820012</v>
+        <v>18.84457451738971</v>
       </c>
       <c r="D16">
-        <v>9.420952180893053</v>
+        <v>9.528770905598325</v>
       </c>
       <c r="E16">
-        <v>13.13682061860374</v>
+        <v>13.18246354962488</v>
       </c>
       <c r="F16">
-        <v>22.88192967206754</v>
+        <v>22.41707542554272</v>
       </c>
       <c r="G16">
-        <v>24.52959409428363</v>
+        <v>24.21974877075584</v>
       </c>
       <c r="I16">
-        <v>3.836454517172292</v>
+        <v>3.763527375150819</v>
       </c>
       <c r="J16">
-        <v>8.396824806539428</v>
+        <v>8.610206928666885</v>
       </c>
       <c r="K16">
-        <v>11.04390069765054</v>
+        <v>10.78339278940236</v>
       </c>
       <c r="L16">
-        <v>6.777832612097212</v>
+        <v>9.94719779755985</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.317624934943098</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.76828787211848</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.23079118538122</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.39191458120431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.41565022275502</v>
+      </c>
+      <c r="S16">
+        <v>14.05326016794003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.35576337045492</v>
+        <v>23.02220724692748</v>
       </c>
       <c r="C17">
-        <v>18.00398310173591</v>
+        <v>18.50375675626999</v>
       </c>
       <c r="D17">
-        <v>9.270527047960281</v>
+        <v>9.361127220565542</v>
       </c>
       <c r="E17">
-        <v>12.9262907521837</v>
+        <v>12.96460944930944</v>
       </c>
       <c r="F17">
-        <v>22.59335648232704</v>
+        <v>22.20679798785281</v>
       </c>
       <c r="G17">
-        <v>24.15784448896924</v>
+        <v>23.44153724091513</v>
       </c>
       <c r="I17">
-        <v>3.772402656315577</v>
+        <v>3.708817212297391</v>
       </c>
       <c r="J17">
-        <v>8.374760896205327</v>
+        <v>8.781984777774603</v>
       </c>
       <c r="K17">
-        <v>11.09057272542868</v>
+        <v>10.86047352229925</v>
       </c>
       <c r="L17">
-        <v>6.716485049589425</v>
+        <v>10.03269182147121</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.290616240114321</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.708852380231667</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.22549031625573</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.27970787797982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.38792377921546</v>
+      </c>
+      <c r="S17">
+        <v>14.00287282617957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.08039464668269</v>
+        <v>22.76561007715224</v>
       </c>
       <c r="C18">
-        <v>17.78091408314581</v>
+        <v>18.27692360878641</v>
       </c>
       <c r="D18">
-        <v>9.179893078723543</v>
+        <v>9.262533736148892</v>
       </c>
       <c r="E18">
-        <v>12.80282631060219</v>
+        <v>12.83779052054265</v>
       </c>
       <c r="F18">
-        <v>22.44242208586451</v>
+        <v>22.09205854655632</v>
       </c>
       <c r="G18">
-        <v>23.97063073268209</v>
+        <v>23.08476010148238</v>
       </c>
       <c r="I18">
-        <v>3.732969683401715</v>
+        <v>3.673502879987597</v>
       </c>
       <c r="J18">
-        <v>8.367473708959038</v>
+        <v>8.856658758074087</v>
       </c>
       <c r="K18">
-        <v>11.12976234349823</v>
+        <v>10.9129534824561</v>
       </c>
       <c r="L18">
-        <v>6.681684621063345</v>
+        <v>10.0874342251572</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.284706662662437</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.674931122258812</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.21836745620814</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.2279738653611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.36926541571856</v>
+      </c>
+      <c r="S18">
+        <v>13.97934952709358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.97813126049859</v>
+        <v>22.66916887784202</v>
       </c>
       <c r="C19">
-        <v>17.72197460498662</v>
+        <v>18.2160454454513</v>
       </c>
       <c r="D19">
-        <v>9.151742770474854</v>
+        <v>9.232046598095794</v>
       </c>
       <c r="E19">
-        <v>12.76208580888891</v>
+        <v>12.79607234279976</v>
       </c>
       <c r="F19">
-        <v>22.37988075752778</v>
+        <v>22.04027171789492</v>
       </c>
       <c r="G19">
-        <v>23.88660471122741</v>
+        <v>22.95388002505531</v>
       </c>
       <c r="I19">
-        <v>3.72139261795367</v>
+        <v>3.664044529456975</v>
       </c>
       <c r="J19">
-        <v>8.361348050403244</v>
+        <v>8.873459350469247</v>
       </c>
       <c r="K19">
-        <v>11.13433513600925</v>
+        <v>10.92199598078898</v>
       </c>
       <c r="L19">
-        <v>6.669660920678902</v>
+        <v>10.10034198061146</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.274710958901111</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.663166201355048</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.21944657294736</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.20137508940578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.36685396414584</v>
+      </c>
+      <c r="S19">
+        <v>13.96115565317502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.40913297208559</v>
+        <v>23.0718737479339</v>
       </c>
       <c r="C20">
-        <v>18.03923028782807</v>
+        <v>18.53914349330525</v>
       </c>
       <c r="D20">
-        <v>9.286342572706062</v>
+        <v>9.378569305759568</v>
       </c>
       <c r="E20">
-        <v>12.9486660384786</v>
+        <v>12.98767344388168</v>
       </c>
       <c r="F20">
-        <v>22.62522041740188</v>
+        <v>22.23124549285911</v>
       </c>
       <c r="G20">
-        <v>24.1995187692987</v>
+        <v>23.5198970355463</v>
       </c>
       <c r="I20">
-        <v>3.779043135250757</v>
+        <v>3.714407118821237</v>
       </c>
       <c r="J20">
-        <v>8.377434577087008</v>
+        <v>8.766996013281982</v>
       </c>
       <c r="K20">
-        <v>11.0864129753195</v>
+        <v>10.85338429568984</v>
       </c>
       <c r="L20">
-        <v>6.723028234334698</v>
+        <v>10.02427316226538</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.294378189814132</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.715215438491774</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.22566600565715</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.29250156415351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.39030609511114</v>
+      </c>
+      <c r="S20">
+        <v>14.0098333276985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.81001148925987</v>
+        <v>24.328252406069</v>
       </c>
       <c r="C21">
-        <v>19.05200792385879</v>
+        <v>19.47972477166049</v>
       </c>
       <c r="D21">
-        <v>9.727167272857887</v>
+        <v>9.892621614769984</v>
       </c>
       <c r="E21">
-        <v>13.56414143571426</v>
+        <v>13.63471060300903</v>
       </c>
       <c r="F21">
-        <v>23.46498694073567</v>
+        <v>22.74009710976076</v>
       </c>
       <c r="G21">
-        <v>25.27367848668274</v>
+        <v>26.51340448981124</v>
       </c>
       <c r="I21">
-        <v>3.968154232838097</v>
+        <v>3.873981758100949</v>
       </c>
       <c r="J21">
-        <v>8.4424233965408</v>
+        <v>7.95924366459499</v>
       </c>
       <c r="K21">
-        <v>10.94642977376298</v>
+        <v>10.5854411967578</v>
       </c>
       <c r="L21">
-        <v>6.904271433035778</v>
+        <v>9.750602366726783</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.344053373047638</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.888320872821138</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.24708583337868</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.61963911924429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.49599613742085</v>
+      </c>
+      <c r="S21">
+        <v>14.07267084279592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.6972290648581</v>
+        <v>25.11977958313818</v>
       </c>
       <c r="C22">
-        <v>19.66059882428412</v>
+        <v>20.03408561377278</v>
       </c>
       <c r="D22">
-        <v>10.00430622392341</v>
+        <v>10.21952788282327</v>
       </c>
       <c r="E22">
-        <v>13.95650971368568</v>
+        <v>14.04836996297358</v>
       </c>
       <c r="F22">
-        <v>24.03444855049405</v>
+        <v>23.08032082513511</v>
       </c>
       <c r="G22">
-        <v>26.00902820438582</v>
+        <v>28.57579550958003</v>
       </c>
       <c r="I22">
-        <v>4.087451371586516</v>
+        <v>3.973119695756742</v>
       </c>
       <c r="J22">
-        <v>8.496709681430712</v>
+        <v>7.44584872668436</v>
       </c>
       <c r="K22">
-        <v>10.87998026408528</v>
+        <v>10.42296128547472</v>
       </c>
       <c r="L22">
-        <v>7.024285155818045</v>
+        <v>9.584237700027961</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.403747292607917</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.002475901293316</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.25807437363753</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.85723830116731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.56593118755525</v>
+      </c>
+      <c r="S22">
+        <v>14.12337728189367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.24087857106215</v>
+        <v>24.72466986956395</v>
       </c>
       <c r="C23">
-        <v>19.31024296603226</v>
+        <v>19.73003357902641</v>
       </c>
       <c r="D23">
-        <v>9.852657178475035</v>
+        <v>10.03454916707279</v>
       </c>
       <c r="E23">
-        <v>13.74588102057608</v>
+        <v>13.82335644443837</v>
       </c>
       <c r="F23">
-        <v>23.7495760726039</v>
+        <v>22.94753643052411</v>
       </c>
       <c r="G23">
-        <v>25.65079909767627</v>
+        <v>27.29555356584381</v>
       </c>
       <c r="I23">
-        <v>4.021572170216347</v>
+        <v>3.917634316506534</v>
       </c>
       <c r="J23">
-        <v>8.473728941003912</v>
+        <v>7.804014926620441</v>
       </c>
       <c r="K23">
-        <v>10.93025960111092</v>
+        <v>10.53445902652079</v>
       </c>
       <c r="L23">
-        <v>6.960592911948709</v>
+        <v>9.686653036490787</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.39602245673615</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.942644991677451</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.24576473805568</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.74536320243524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.516443418089</v>
+      </c>
+      <c r="S23">
+        <v>14.13539049056743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.40730980822284</v>
+        <v>23.07181355994746</v>
       </c>
       <c r="C24">
-        <v>17.97695289003273</v>
+        <v>18.47602469288194</v>
       </c>
       <c r="D24">
-        <v>9.271983491183402</v>
+        <v>9.363412675297615</v>
       </c>
       <c r="E24">
-        <v>12.9352907054516</v>
+        <v>12.97395994517635</v>
       </c>
       <c r="F24">
-        <v>22.64209277815172</v>
+        <v>22.25148916836734</v>
       </c>
       <c r="G24">
-        <v>24.23683831621387</v>
+        <v>23.54133511874355</v>
       </c>
       <c r="I24">
-        <v>3.771715547225746</v>
+        <v>3.705588335392441</v>
       </c>
       <c r="J24">
-        <v>8.386499614730068</v>
+        <v>8.783314943541539</v>
       </c>
       <c r="K24">
-        <v>11.11262169247878</v>
+        <v>10.87935464625736</v>
       </c>
       <c r="L24">
-        <v>6.720796639571377</v>
+        <v>10.04260967778542</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.314632045352417</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.713070061225519</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.2161543796385</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.31193549032863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.37935083832575</v>
+      </c>
+      <c r="S24">
+        <v>14.03170661004094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.24838967763108</v>
+        <v>20.99767541101941</v>
       </c>
       <c r="C25">
-        <v>16.42985758625549</v>
+        <v>16.80413858791404</v>
       </c>
       <c r="D25">
-        <v>8.619445188109916</v>
+        <v>8.687361299266904</v>
       </c>
       <c r="E25">
-        <v>12.02986634758718</v>
+        <v>12.05941343098681</v>
       </c>
       <c r="F25">
-        <v>21.45716915272734</v>
+        <v>21.18003123974388</v>
       </c>
       <c r="G25">
-        <v>22.71236748577829</v>
+        <v>21.88055046143899</v>
       </c>
       <c r="I25">
-        <v>3.493821768512543</v>
+        <v>3.459149935945545</v>
       </c>
       <c r="J25">
-        <v>8.313480281534096</v>
+        <v>8.799237466954853</v>
       </c>
       <c r="K25">
-        <v>11.34351593440462</v>
+        <v>11.15608847256738</v>
       </c>
       <c r="L25">
-        <v>6.467662591587306</v>
+        <v>10.37506549927115</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.208356265798864</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.462685702238923</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.19811655785768</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.87814936444815</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.30302226562839</v>
+      </c>
+      <c r="S25">
+        <v>13.6836516473402</v>
       </c>
     </row>
   </sheetData>
